--- a/docs-scheme/trms/桌面终端安全管控平台功能清单.xlsx
+++ b/docs-scheme/trms/桌面终端安全管控平台功能清单.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
   <si>
     <t>桌面终端安全管控平台功能清单</t>
   </si>
@@ -349,6 +350,9 @@
   </si>
   <si>
     <t>设置本地共享的目录和文件并设置相应的权限，共享权限包括访问对象及操作权限</t>
+  </si>
+  <si>
+    <t>D-lan</t>
   </si>
   <si>
     <t>辅助工具管理</t>
@@ -807,16 +811,140 @@
   <si>
     <t>人工估算</t>
   </si>
+  <si>
+    <t>3级子功能</t>
+  </si>
+  <si>
+    <t>第一期</t>
+  </si>
+  <si>
+    <t>第二期</t>
+  </si>
+  <si>
+    <t>是否已经实现</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>待确定</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>需要根据岗位来实现策略管理和必备软件检测</t>
+  </si>
+  <si>
+    <t>第一期已经实现，基本硬件，CPU型号的采集</t>
+  </si>
+  <si>
+    <t>移动硬盘，U盘</t>
+  </si>
+  <si>
+    <t>客户端只用把黑白名单中的已安装软件上报，第一期已经实现获取已安装的应用列表，无需再封装其他的基本功能的接口</t>
+  </si>
+  <si>
+    <t>GUI维度属于管控终端的实现范畴，具体得与服务端的数据库表进行关联</t>
+  </si>
+  <si>
+    <t>客户端只用检测必备软件名单上的软件，与本地已安装的应用对比并上报，无需再封装其他基本功能的接口</t>
+  </si>
+  <si>
+    <t>管控终端定制策略信息，再来有客户端执行策略，禁止程序运行的功能无需再次封装，只要强制Kill即可</t>
+  </si>
+  <si>
+    <t>客户端只用检测黑白名单上的软件，与本地已安装的应用对比并上报，无需再封装其他基本功能的接口</t>
+  </si>
+  <si>
+    <t>暂时不知道怎样通过组策略管理器来执行相应的策略脚本，即暂时无法通过win API来实现相应策略执行</t>
+  </si>
+  <si>
+    <t>能禁止特定软件的网络端口号的通信，调用windows 防火墙COM 接口</t>
+  </si>
+  <si>
+    <t>操作系统默认用户？ 待确定</t>
+  </si>
+  <si>
+    <t>用trace 等命令</t>
+  </si>
+  <si>
+    <t>需求不明确</t>
+  </si>
+  <si>
+    <t>与第一期的终端硬件信息采集有什么区别？还是仅仅包含已安装的驱动信息？</t>
+  </si>
+  <si>
+    <t>文件推送计划制定</t>
+  </si>
+  <si>
+    <t>管理终端与服务器端服务组合才能完成，与客户端无关</t>
+  </si>
+  <si>
+    <t>文件推送计划审批</t>
+  </si>
+  <si>
+    <t>文件推送结果查询</t>
+  </si>
+  <si>
+    <t>推送完成后，客户端把相应的结果通过服务接口写回服务端数据库，基本无需封装</t>
+  </si>
+  <si>
+    <t>消息推送计划制定</t>
+  </si>
+  <si>
+    <t>同文件推送一致</t>
+  </si>
+  <si>
+    <t>消息推送计划审批</t>
+  </si>
+  <si>
+    <t>消息推送结果查询</t>
+  </si>
+  <si>
+    <t>服务器端的责任，UKEY与组织机构一般是对应绑定关系，一个UKEY只能属于特定的一个组织机构，客户终端“不知道”自己所属机构</t>
+  </si>
+  <si>
+    <t>服务器端的责任，UKEY与组织机构一般是对应绑定关系，一个UKEY只能属于特定的一个组织机构，客户终端“不知道”自己所属机构，客户端只用执行发来的策略即可</t>
+  </si>
+  <si>
+    <t>远程协助，身份认证，权限管理需要服务端配合，没有可以封装的基础功能接口</t>
+  </si>
+  <si>
+    <t>采用的是RealVNC的社区开源版本</t>
+  </si>
+  <si>
+    <t>需要服务端的软件仓库服务配合，客户端执行相应的下载请求，或者提示用户下载即可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需要服务端的软件仓库服务配合，客户端执行相应的下载请求，或者提示用户下载即可
+</t>
+  </si>
+  <si>
+    <t>基本是服务端和管理终端的实现，给运维管理人员提供基本的信息，客户端不需要实现</t>
+  </si>
+  <si>
+    <t>需求不明确，是否仅仅只是设置共享文件夹等相关权限</t>
+  </si>
+  <si>
+    <t>需求不明确，不知道怎么实现</t>
+  </si>
+  <si>
+    <t>第一期已经实现部分统计，可能第二期的统计还得加上新的纬度</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -825,6 +953,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -893,18 +1026,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -913,32 +1034,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,6 +1052,87 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,54 +1160,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1040,18 +1168,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1067,13 +1207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,13 +1231,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,13 +1279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,13 +1303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,13 +1315,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,67 +1369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,6 +1392,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1335,21 +1484,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1374,15 +1508,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,6 +1542,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1428,17 +1571,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,8 +1592,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1470,8 +1604,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,203 +1615,235 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1686,53 +1852,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1742,15 +1902,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1808,6 +1968,11 @@
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2092,596 +2257,597 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="13" style="20" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="20" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="20"/>
+    <col min="1" max="2" width="13" style="31" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="31" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="54" spans="1:4">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:4">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:4">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:4">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" ht="40.5" spans="1:4">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" ht="67.5" spans="1:4">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:4">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:4">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="1:4">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:4">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" ht="94.5" spans="1:4">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29" ht="67.5" spans="1:4">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" ht="54" spans="1:4">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A31" s="32" t="s">
+    <row r="31" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A31" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-    </row>
-    <row r="32" s="29" customFormat="1" ht="54" spans="1:6">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="34" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+    </row>
+    <row r="32" s="40" customFormat="1" ht="54" spans="1:6">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A33" s="37"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="34" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A33" s="46"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A34" s="37"/>
-      <c r="B34" s="33" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A34" s="46"/>
+      <c r="B34" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-    </row>
-    <row r="35" s="29" customFormat="1" ht="54" spans="1:6">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="34" t="s">
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" s="40" customFormat="1" ht="54" spans="1:6">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-    </row>
-    <row r="36" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A36" s="37"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="34" t="s">
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+    </row>
+    <row r="36" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A36" s="46"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-    </row>
-    <row r="37" s="29" customFormat="1" ht="54" customHeight="1" spans="1:6">
-      <c r="A37" s="37"/>
-      <c r="B37" s="33" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" s="40" customFormat="1" ht="54" customHeight="1" spans="1:6">
+      <c r="A37" s="46"/>
+      <c r="B37" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-    </row>
-    <row r="38" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="34" t="s">
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+    </row>
+    <row r="38" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" s="29" customFormat="1" ht="54" spans="1:6">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="34" t="s">
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+    </row>
+    <row r="39" s="40" customFormat="1" ht="54" spans="1:6">
+      <c r="A39" s="46"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-    </row>
-    <row r="40" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A40" s="37"/>
-      <c r="B40" s="33" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+    </row>
+    <row r="40" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A40" s="46"/>
+      <c r="B40" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-    </row>
-    <row r="41" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A41" s="37"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="34" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A41" s="46"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-    </row>
-    <row r="42" s="29" customFormat="1" ht="27" spans="1:6">
-      <c r="A42" s="37"/>
-      <c r="B42" s="33" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" s="40" customFormat="1" ht="27" spans="1:6">
+      <c r="A42" s="46"/>
+      <c r="B42" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
-    </row>
-    <row r="43" s="29" customFormat="1" spans="1:6">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="34" t="s">
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" s="40" customFormat="1" spans="1:6">
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-    </row>
-    <row r="44" s="29" customFormat="1" spans="1:6">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="34" t="s">
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+    </row>
+    <row r="44" s="40" customFormat="1" spans="1:6">
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-    </row>
-    <row r="45" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A45" s="37"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="34" t="s">
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+    </row>
+    <row r="45" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A45" s="46"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-    </row>
-    <row r="46" s="29" customFormat="1" ht="40.5" spans="1:6">
-      <c r="A46" s="37"/>
-      <c r="B46" s="39" t="s">
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+    </row>
+    <row r="46" s="40" customFormat="1" ht="40.5" spans="1:6">
+      <c r="A46" s="46"/>
+      <c r="B46" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-    </row>
-    <row r="47" s="29" customFormat="1" ht="27" spans="1:6">
-      <c r="A47" s="37"/>
-      <c r="B47" s="39" t="s">
+      <c r="E46" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="F46" s="45"/>
+    </row>
+    <row r="47" s="40" customFormat="1" ht="27" spans="1:6">
+      <c r="A47" s="46"/>
+      <c r="B47" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="C47" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-    </row>
-    <row r="48" s="29" customFormat="1" ht="54" spans="1:6">
-      <c r="A48" s="40" t="s">
+      <c r="D47" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="35" t="s">
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+    </row>
+    <row r="48" s="40" customFormat="1" ht="54" spans="1:6">
+      <c r="A48" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="B48" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -2712,7 +2878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -2722,286 +2888,286 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="19" customWidth="1"/>
-    <col min="2" max="3" width="9" style="19"/>
-    <col min="4" max="4" width="9" style="19" customWidth="1"/>
-    <col min="5" max="6" width="9" style="20"/>
-    <col min="7" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="4.125" style="30" customWidth="1"/>
+    <col min="2" max="3" width="9" style="30"/>
+    <col min="4" max="4" width="9" style="30" customWidth="1"/>
+    <col min="5" max="6" width="9" style="31"/>
+    <col min="7" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" s="29" customFormat="1" ht="33.75" spans="1:6">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" s="29" customFormat="1" ht="45" spans="1:6">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" s="29" customFormat="1" ht="90" spans="1:6">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" s="29" customFormat="1" ht="56.25" spans="1:6">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" s="29" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A6" s="34">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" s="29" customFormat="1" ht="90" spans="1:6">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" s="29" customFormat="1" ht="45" spans="1:6">
+      <c r="A8" s="34">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" s="29" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" s="29" customFormat="1" ht="101.25" spans="1:6">
+      <c r="A10" s="34">
+        <v>4</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" s="29" customFormat="1" ht="135" spans="1:6">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" s="29" customFormat="1" ht="101.25" spans="1:6">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" s="29" customFormat="1" ht="78.75" spans="1:6">
+      <c r="A13" s="34">
+        <v>5</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" s="29" customFormat="1" ht="78.75" spans="1:6">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="38"/>
+    </row>
+    <row r="15" s="29" customFormat="1" ht="123.75" spans="1:6">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="38"/>
+    </row>
+    <row r="16" s="29" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="38"/>
+    </row>
+    <row r="17" s="29" customFormat="1" ht="101.25" spans="1:6">
+      <c r="A17" s="34">
+        <v>6</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" s="18" customFormat="1" ht="33.75" spans="1:6">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" s="18" customFormat="1" ht="45" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" s="18" customFormat="1" ht="90" spans="1:6">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" s="18" customFormat="1" ht="56.25" spans="1:6">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" s="18" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A6" s="23">
-        <v>2</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" s="18" customFormat="1" ht="90" spans="1:6">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" s="18" customFormat="1" ht="45" spans="1:6">
-      <c r="A8" s="23">
-        <v>3</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" s="18" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" s="18" customFormat="1" ht="101.25" spans="1:6">
-      <c r="A10" s="23">
-        <v>4</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" s="18" customFormat="1" ht="135" spans="1:6">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" s="18" customFormat="1" ht="101.25" spans="1:6">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" s="18" customFormat="1" ht="78.75" spans="1:6">
-      <c r="A13" s="23">
-        <v>5</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" s="18" customFormat="1" ht="78.75" spans="1:6">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" s="18" customFormat="1" ht="123.75" spans="1:6">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" s="18" customFormat="1" ht="67.5" spans="1:6">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" s="18" customFormat="1" ht="101.25" spans="1:6">
-      <c r="A17" s="23">
-        <v>6</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3023,11 +3189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -3038,660 +3204,660 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>160</v>
       </c>
+      <c r="C1" s="14" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2" ht="15" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="17">
         <f>SUM(C3:C5)</f>
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="18">
         <v>1.1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:3">
-      <c r="A4" s="7">
+      <c r="A4" s="18">
         <v>1.2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="39" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="18">
         <v>1.3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="17">
         <v>8</v>
       </c>
     </row>
     <row r="7" ht="26.25" spans="1:3">
-      <c r="A7" s="7">
+      <c r="A7" s="18">
         <v>2.1</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="20">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="26.25" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="18">
         <v>2.2</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="26.25" spans="1:3">
-      <c r="A10" s="7">
+      <c r="A10" s="18">
         <v>3.1</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="B10" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="9">
+      <c r="B11" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="9">
+      <c r="B12" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="9">
+      <c r="B13" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="A14" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="9">
+      <c r="B15" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="7">
+      <c r="A16" s="18">
         <v>3.2</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C16" s="11"/>
+      <c r="B16" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C17" s="9">
+      <c r="B17" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="9">
+      <c r="B18" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="9">
+      <c r="B19" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="4">
+      <c r="A20" s="15">
         <v>4</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="27.75" spans="1:3">
+      <c r="A21" s="18">
+        <v>4.1</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="26.25" spans="1:3">
+      <c r="A23" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" ht="27.75" spans="1:3">
-      <c r="A21" s="7">
-        <v>4.1</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="C25" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="39" spans="1:3">
+      <c r="A26" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" ht="15" spans="1:3">
+      <c r="A27" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="26.25" spans="1:3">
+      <c r="A29" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="26.25" spans="1:3">
+      <c r="A30" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="26.25" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="9">
+    <row r="33" ht="15" spans="1:3">
+      <c r="A33" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="9">
+      <c r="B33" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:3">
+      <c r="A34" s="18">
+        <v>5.1</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="18">
+        <v>5.2</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="22"/>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="26.25" spans="1:3">
+      <c r="A42" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:3">
+      <c r="A43" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="9">
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="18">
+        <v>5.3</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="22"/>
+    </row>
+    <row r="45" ht="15" spans="1:3">
+      <c r="A45" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C46" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:3">
+      <c r="A47" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="26.25" spans="1:3">
+      <c r="A48" s="24">
+        <v>6</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" s="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" ht="51.75" spans="1:3">
+      <c r="A49" s="18">
+        <v>6.1</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" ht="51.75" spans="1:3">
+      <c r="A50" s="18">
+        <v>6.2</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" ht="26.25" spans="1:3">
+      <c r="A51" s="18">
+        <v>6.3</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" ht="26.25" spans="1:3">
+      <c r="A52" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="18">
+        <v>6.5</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="39" spans="1:3">
-      <c r="A26" s="7">
-        <v>4.2</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" ht="26.25" spans="1:3">
-      <c r="A29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" ht="26.25" spans="1:3">
-      <c r="A30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="4">
-        <v>5</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="7">
-        <v>5.1</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C36" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C37" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C38" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" ht="26.25" spans="1:3">
-      <c r="A42" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C43" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C45" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C46" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="9">
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="18">
+        <v>6.6</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="26.25" spans="1:3">
+      <c r="A55" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="48" ht="26.25" spans="1:3">
-      <c r="A48" s="13">
-        <v>6</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" ht="51.75" spans="1:3">
-      <c r="A49" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" ht="51.75" spans="1:3">
-      <c r="A50" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" ht="26.25" spans="1:3">
-      <c r="A51" s="7">
-        <v>6.3</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" ht="26.25" spans="1:3">
-      <c r="A52" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C52" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="7">
-        <v>6.6</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="26.25" spans="1:3">
-      <c r="A55" s="7">
-        <v>6.7</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C55" s="9">
-        <v>1</v>
-      </c>
-    </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16">
+      <c r="A56" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="26"/>
+      <c r="C56" s="27">
         <f>C48+C33+C20+C9+C6+C2</f>
         <v>169</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="17">
+      <c r="A57" s="28">
         <v>7</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C57" s="11"/>
+      <c r="B57" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="17">
+      <c r="A58" s="28">
         <v>7.1</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="9">
+      <c r="B58" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="17">
+      <c r="A59" s="28">
         <v>7.2</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="9">
+      <c r="B59" s="23"/>
+      <c r="C59" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="17">
+      <c r="A60" s="28">
         <v>7.3</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="9">
+      <c r="B60" s="23"/>
+      <c r="C60" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16">
+      <c r="A61" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="16">
+      <c r="A62" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="26"/>
+      <c r="C62" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3705,4 +3871,711 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="42.75" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" ht="57" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" ht="81" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" ht="77" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="80" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="72" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" ht="68" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" ht="69" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" ht="80" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="77" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="103" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="97" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="96" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" ht="98" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" ht="79" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" ht="90" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" ht="75" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" ht="104" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" ht="93" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" ht="84" customHeight="1" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" ht="73" customHeight="1" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" ht="89" customHeight="1" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" ht="79" customHeight="1" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" ht="75" customHeight="1" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" ht="82" customHeight="1" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" ht="82" customHeight="1" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" ht="76" customHeight="1" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" ht="94" customHeight="1" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" ht="87" customHeight="1" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" ht="76" customHeight="1" spans="1:5">
+      <c r="A31" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" ht="83" customHeight="1" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" ht="93" customHeight="1" spans="1:5">
+      <c r="A33" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" ht="79" customHeight="1" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" ht="86" customHeight="1" spans="1:5">
+      <c r="A35" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" ht="87" customHeight="1" spans="1:5">
+      <c r="A36" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" ht="126" customHeight="1" spans="1:5">
+      <c r="A37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" ht="170" customHeight="1" spans="1:5">
+      <c r="A38" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" ht="75" customHeight="1" spans="1:5">
+      <c r="A39" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" ht="85" customHeight="1" spans="1:5">
+      <c r="A40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" ht="74" customHeight="1" spans="1:5">
+      <c r="A41" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" ht="96" customHeight="1" spans="1:5">
+      <c r="A42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" ht="72" customHeight="1" spans="1:5">
+      <c r="A43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" ht="111" customHeight="1" spans="1:5">
+      <c r="A44" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" ht="84" customHeight="1" spans="1:5">
+      <c r="A45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" ht="78" customHeight="1" spans="1:5">
+      <c r="A46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" ht="120" customHeight="1" spans="1:5">
+      <c r="A47" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>